--- a/biology/Zoologie/Conus_philippii/Conus_philippii.xlsx
+++ b/biology/Zoologie/Conus_philippii/Conus_philippii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Conus philippii est une espèce de mollusques gastéropodes marins de la famille des Conidae.
 Comme toutes les espèces du genre Conus, ces escargots sont prédateurs et venimeux. Ils sont capables de « piquer » les humains et doivent donc être manipulés avec précaution, voire pas du tout.
@@ -512,11 +524,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce est présente dans la mer des Caraïbes.
-Niveau de risque d’extinction de l’espèce
-Selon l'analyse de l'UICN réalisée en 2011 pour la définition du niveau de risque d'extinction, cette espèce se trouve à partir du cap Hatteras en Caroline du Nord et s'étend vers le sud jusqu'à Fort Pierce en Floride. Il n'y a pas de menaces connues. Cette espèce est classée dans la catégorie " préoccupation mineure "[1].
 </t>
         </is>
       </c>
@@ -542,15 +554,92 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Niveau de risque d’extinction de l’espèce</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon l'analyse de l'UICN réalisée en 2011 pour la définition du niveau de risque d'extinction, cette espèce se trouve à partir du cap Hatteras en Caroline du Nord et s'étend vers le sud jusqu'à Fort Pierce en Floride. Il n'y a pas de menaces connues. Cette espèce est classée dans la catégorie " préoccupation mineure ".
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Conus_philippii</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Conus_philippii</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Publication originale
-L'espèce Conus philippii a été décrite pour la première fois en 1847 par le malacologiste et médecin thermal allemand Louis Charles Kiener dans « Spécies général et iconographie des coquilles vivantes Vol 2 »[2],[3].
-Synonymes
-Conus (Dauciconus) philippii Kiener, 1847 · appellation alternative
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Publication originale</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Conus philippii a été décrite pour la première fois en 1847 par le malacologiste et médecin thermal allemand Louis Charles Kiener dans « Spécies général et iconographie des coquilles vivantes Vol 2 »,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Conus_philippii</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Conus_philippii</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Conus (Dauciconus) philippii Kiener, 1847 · appellation alternative
 Conus candidus Kiener, 1847 · non accepté
 Gradiconus philippii (Kiener, 1847) · non accepté</t>
         </is>
